--- a/biology/Botanique/Lepidagathis/Lepidagathis.xlsx
+++ b/biology/Botanique/Lepidagathis/Lepidagathis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lepidagathis Willd. est un genre de plantes de la famille des Acanthaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (9 janvier 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (9 janvier 2018) :
 Lepidagathis alopecuroidea (Vahl) R. Br. ex Griseb.
 Lepidagathis alvarezia (Nees) Kameyama ex D.C. Wassh. &amp; J.R.I.Wood
 Lepidagathis amaranthoides Elmer
@@ -662,13 +676,13 @@
 Lepidagathis wasshausenii Kameyama
 Lepidagathis yappii Ridl.
 Lepidagathis zunigae (C. Nelson) comb. ined.
-Selon GRIN            (9 janvier 2018)[3] :
+Selon GRIN            (9 janvier 2018) :
 Lepidagathis alopecuroidea (Vahl) R. Br. ex Griseb.
 Lepidagathis cristata Willd.
 Lepidagathis trinervis Nees
-Selon ITIS      (9 janvier 2018)[4] :
+Selon ITIS      (9 janvier 2018) :
 Lepidagathis alopecuroidea (Vahl) R. Br. ex Griseb.
-Selon NCBI  (9 janvier 2018)[5] :
+Selon NCBI  (9 janvier 2018) :
 Lepidagathis alopecuroidea
 Lepidagathis andersoniana
 Lepidagathis cristata
@@ -678,7 +692,7 @@
 Lepidagathis incurva
 Lepidagathis scabra
 Lepidagathis villosa
-Selon The Plant List            (9 janvier 2018)[6] :
+Selon The Plant List            (9 janvier 2018) :
 Lepidagathis alopecuroidea (Vahl) R.Br. ex Griseb.
 Lepidagathis alverezia (Nees) Kameyama ex Wassh. &amp; J.R.I. Wood
 Lepidagathis andersoniana Lindau
@@ -750,7 +764,7 @@
 Lepidagathis variegata Benoist
 Lepidagathis villosa Hedrén
 Lepidagathis vulpina Benoist
-Selon Tropicos                                           (9 janvier 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (9 janvier 2018) (Attention liste brute contenant possiblement des synonymes) :
 Lepidagathis acicularis Turrill
 Lepidagathis alopecuroidea (Vahl) R. Br. ex Griseb.
 Lepidagathis alvarezia (Nees) Kameyama ex Wassh. &amp; J.R.I. Wood
